--- a/agregado.xlsx
+++ b/agregado.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>ID</t>
   </si>
@@ -56,14 +56,25 @@
   </si>
   <si>
     <t>Maputo Cidade</t>
+  </si>
+  <si>
+    <t>Percentagem</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -106,9 +117,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -413,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C12"/>
+      <selection activeCell="D1" sqref="D1:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -424,7 +437,7 @@
     <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -434,8 +447,11 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -445,8 +461,11 @@
       <c r="C2" s="1">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="1">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -456,8 +475,11 @@
       <c r="C3" s="1">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="1">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -467,8 +489,11 @@
       <c r="C4" s="1">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="1">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -478,8 +503,11 @@
       <c r="C5" s="1">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="1">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -489,8 +517,11 @@
       <c r="C6" s="1">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -500,8 +531,11 @@
       <c r="C7" s="1">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="3">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -511,8 +545,11 @@
       <c r="C8" s="1">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -522,8 +559,11 @@
       <c r="C9" s="1">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" s="1">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -533,8 +573,11 @@
       <c r="C10" s="1">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" s="1">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -544,8 +587,11 @@
       <c r="C11" s="1">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" s="1">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -554,6 +600,9 @@
       </c>
       <c r="C12" s="1">
         <v>4.8</v>
+      </c>
+      <c r="D12" s="1">
+        <v>18.399999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -561,5 +610,6 @@
     <sortCondition ref="B2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>